--- a/biology/Zoologie/Les_Grangettes/Les_Grangettes.xlsx
+++ b/biology/Zoologie/Les_Grangettes/Les_Grangettes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Grangettes est une commune française située dans le département du Doubs, la région culturelle et historique de Franche-Comté et la région administrative Bourgogne-Franche-Comté.
-Les habitants de la commune sont surnommés les Tiercelets[1],[Note 1].
+Les habitants de la commune sont surnommés les Tiercelets,[Note 1].
 </t>
         </is>
       </c>
@@ -515,15 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Communes limitrophes
-Toponymie
-Grangiis en 1266 ; Grangiis juxta lacum Domini Valteri en 1296 ; in territorio Grangiarum en 1322 ; Grangete en 1348 ; Les Grangetes en 1370 ; Grangettes en 1683[2].
-Situé sur la rive gauche du lac de Saint-Point, la commune des Grangettes se situe à une altitude de 900 mètres.
-Climat
-En 2010, le climat de la commune est de type climat de montagne, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000[3]. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat de montagne ou de marges de montagne et est dans la région climatique  Jura, caractérisée par une forte pluviométrie en toutes saisons (1 000 à 1 500 mm/an), des hivers rigoureux et un ensoleillement médiocre[4]. 
-Pour la période 1971-2000, la température annuelle moyenne est de 7,3 °C, avec une amplitude thermique annuelle de 16,4 °C. Le cumul annuel moyen de précipitations est de 1 578 mm, avec 12 jours de précipitations en janvier et 11 jours en juillet[3]. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Labergement », sur la commune de Labergement-Sainte-Marie à 6 km à vol d'oiseau[5], est de 8,0 °C et le cumul annuel moyen de précipitations est de 1 459,4 mm. 
-La température maximale relevée sur cette station est de 36,4 °C, atteinte le 31 juillet 1983; la température minimale est de −33 °C, atteinte le 9 janvier 1985[Note 2],[6],[7]. 
-Les paramètres climatiques de la commune ont été estimés pour le milieu du siècle (2041-2070) selon différents scénarios d'émission de gaz à effet de serre à partir des nouvelles projections climatiques de référence DRIAS-2020[8]. Ils sont consultables sur un site dédié publié par Météo-France en novembre 2022[9].
+          <t>Communes limitrophes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 </t>
         </is>
       </c>
@@ -549,17 +559,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Urbanisme</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Typologie
-Les Grangettes est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 3],[10],[11],[12].
-Par ailleurs la commune fait partie de l'aire d'attraction de Pontarlier, dont elle est une commune de la couronne[Note 4]. Cette aire, qui regroupe 56 communes, est catégorisée dans les aires de moins de 50 000 habitants[13],[14].
-Occupation des sols
-L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des forêts et milieux semi-naturels (47,7 % en 2018), une proportion identique à celle de 1990 (47,7 %). La répartition détaillée en 2018 est la suivante : 
-forêts (47,7 %), prairies (22,6 %), eaux continentales[Note 5] (18,2 %), zones urbanisées (10,5 %), zones humides intérieures (1 %)[15]. L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+          <t>Toponymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grangiis en 1266 ; Grangiis juxta lacum Domini Valteri en 1296 ; in territorio Grangiarum en 1322 ; Grangete en 1348 ; Les Grangetes en 1370 ; Grangettes en 1683.
+Situé sur la rive gauche du lac de Saint-Point, la commune des Grangettes se situe à une altitude de 900 mètres.
 </t>
         </is>
       </c>
@@ -585,10 +597,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Climat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le climat de la commune est de type climat de montagne, selon une étude du Centre national de la recherche scientifique s'appuyant sur une série de données couvrant la période 1971-2000. En 2020, Météo-France publie une typologie des climats de la France métropolitaine dans laquelle la commune est exposée à un climat de montagne ou de marges de montagne et est dans la région climatique  Jura, caractérisée par une forte pluviométrie en toutes saisons (1 000 à 1 500 mm/an), des hivers rigoureux et un ensoleillement médiocre. 
+Pour la période 1971-2000, la température annuelle moyenne est de 7,3 °C, avec une amplitude thermique annuelle de 16,4 °C. Le cumul annuel moyen de précipitations est de 1 578 mm, avec 12 jours de précipitations en janvier et 11 jours en juillet. Pour la période 1991-2020, la température moyenne annuelle observée sur la station météorologique de Météo-France la plus proche, « Labergement », sur la commune de Labergement-Sainte-Marie à 6 km à vol d'oiseau, est de 8,0 °C et le cumul annuel moyen de précipitations est de 1 459,4 mm. 
+La température maximale relevée sur cette station est de 36,4 °C, atteinte le 31 juillet 1983; la température minimale est de −33 °C, atteinte le 9 janvier 1985[Note 2]. 
+Les paramètres climatiques de la commune ont été estimés pour le milieu du siècle (2041-2070) selon différents scénarios d'émission de gaz à effet de serre à partir des nouvelles projections climatiques de référence DRIAS-2020. Ils sont consultables sur un site dédié publié par Météo-France en novembre 2022.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -611,12 +637,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Politique et administration</t>
+          <t>Urbanisme</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Grangettes est une commune rurale, car elle fait partie des communes peu ou très peu denses, au sens de la grille communale de densité de l'Insee[Note 3].
+Par ailleurs la commune fait partie de l'aire d'attraction de Pontarlier, dont elle est une commune de la couronne[Note 4]. Cette aire, qui regroupe 56 communes, est catégorisée dans les aires de moins de 50 000 habitants,.
 </t>
         </is>
       </c>
@@ -642,15 +675,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Démographie</t>
+          <t>Urbanisme</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation[18]. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2005[19].
-En 2021, la commune comptait 310 habitants[Note 6], en augmentation de 12,32 % par rapport à 2015 (Doubs : +1,89 %, France hors Mayotte : +1,84 %).
-De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999[20] puis Insee à partir de 2006[21].)
-Histogramme de l'évolution démographique</t>
+          <t>Occupation des sols</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'occupation des sols de la commune, telle qu'elle ressort de la base de données européenne d’occupation biophysique des sols Corine Land Cover (CLC), est marquée par l'importance des forêts et milieux semi-naturels (47,7 % en 2018), une proportion identique à celle de 1990 (47,7 %). La répartition détaillée en 2018 est la suivante : 
+forêts (47,7 %), prairies (22,6 %), eaux continentales[Note 5] (18,2 %), zones urbanisées (10,5 %), zones humides intérieures (1 %). L'évolution de l’occupation des sols de la commune et de ses infrastructures peut être observée sur les différentes représentations cartographiques du territoire : la carte de Cassini (XVIIIe siècle), la carte d'état-major (1820-1866) et les cartes ou photos aériennes de l'IGN pour la période actuelle (1950 à aujourd'hui)[Carte 1].
+</t>
         </is>
       </c>
     </row>
@@ -675,10 +713,108 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Politique et administration</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Démographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>L'évolution du nombre d'habitants est connue à travers les recensements de la population effectués dans la commune depuis 1793. Pour les communes de moins de 10 000 habitants, une enquête de recensement portant sur toute la population est réalisée tous les cinq ans, les populations légales des années intermédiaires étant quant à elles estimées par interpolation ou extrapolation. Pour la commune, le premier recensement exhaustif entrant dans le cadre du nouveau dispositif a été réalisé en 2005.
+En 2021, la commune comptait 310 habitants[Note 6], en augmentation de 12,32 % par rapport à 2015 (Doubs : +1,89 %, France hors Mayotte : +1,84 %).
+De 1962 à 1999 : population sans doubles comptes ; pour les dates suivantes : population municipale.(Sources : Ldh/EHESS/Cassini jusqu'en 1999 puis Insee à partir de 2006.)
+Histogramme de l'évolution démographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Lieux et monuments</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Maison de Monte au Lever, monument historique, datant de 1910.
 Port-Titi, hameau au bord du lac, quelques cabanons construits par des amis pêcheurs au début du XXe siècle.
@@ -692,31 +828,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Les_Grangettes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Les_Grangettes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Les_Grangettes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Personnalités liées à la commune</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
